--- a/GATEWAY/A1#111#EURITECHX1/isaac4/isaac4/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#EURITECHX1/isaac4/isaac4/1.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiosantoro/Library/Mobile Documents/com~apple~CloudDocs/EURISKO_icloud/ISAAC/Isaac4Healthcare/FSE/ACCREDITAMENTO/ACCREDITAMENTO 10042024 xlsx/pull_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiosantoro/Library/Mobile Documents/com~apple~CloudDocs/EURISKO_icloud/ISAAC/Isaac4Healthcare/FSE/ACCREDITAMENTO/ACCREDITAMENTO 10042024 xlsx/pull_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A74A87-C382-524D-ABE9-4620F35A398F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0463C3-DC74-B546-8B0A-6AF4A6305132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="42020" windowHeight="22340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="918">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4341,6 +4341,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.660ce4d79b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore terminologico</t>
   </si>
 </sst>
 </file>
@@ -7204,8 +7207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J391" sqref="J391"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -10362,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="N88" s="24" t="s">
-        <v>198</v>
+        <v>917</v>
       </c>
       <c r="O88" s="24" t="s">
         <v>73</v>
